--- a/data/scheduling_DNN/predict/0.9/result16.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result16.xlsx
@@ -570,10 +570,10 @@
         <v>0.8674969673156738</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5170160531997681</v>
       </c>
       <c r="W2" t="n">
-        <v>0.003951455932110548</v>
+        <v>0.1228368729352951</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8562660217285156</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.8682993650436401</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1098863556981087</v>
+        <v>0.0001448013499611989</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8568980693817139</v>
       </c>
       <c r="V4" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.8976396918296814</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1930816471576691</v>
+        <v>0.00165987981017679</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9078249931335449</v>
       </c>
       <c r="V5" t="n">
-        <v>0.801636278629303</v>
+        <v>0.3990485370159149</v>
       </c>
       <c r="W5" t="n">
-        <v>0.01127604302018881</v>
+        <v>0.2588534653186798</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8452999591827393</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.3990626335144043</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0001235210220329463</v>
+        <v>0.1991277486085892</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8480839729309082</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.4004627168178558</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002043982269242406</v>
+        <v>0.2003647834062576</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8433830738067627</v>
       </c>
       <c r="V8" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.8655083179473877</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1812467277050018</v>
+        <v>0.0004895264282822609</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.898231029510498</v>
       </c>
       <c r="V9" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5176383852958679</v>
       </c>
       <c r="W9" t="n">
-        <v>0.1667973250150681</v>
+        <v>0.1448507606983185</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8457989692687988</v>
       </c>
       <c r="V10" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8835980892181396</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1479702144861221</v>
+        <v>0.001428773510269821</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.853477954864502</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.3990717530250549</v>
       </c>
       <c r="W11" t="n">
-        <v>0.03966868668794632</v>
+        <v>0.2064850032329559</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8590350151062012</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.5319328308105469</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1949133425951004</v>
+        <v>0.1069958359003067</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>1.215978860855103</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.4002876579761505</v>
       </c>
       <c r="W13" t="n">
-        <v>0.7018020153045654</v>
+        <v>0.6653521656990051</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8441088199615479</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5165572762489319</v>
       </c>
       <c r="W14" t="n">
-        <v>0.01849340088665485</v>
+        <v>0.1072900146245956</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.842289924621582</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.5307278633117676</v>
       </c>
       <c r="W15" t="n">
-        <v>0.06763120740652084</v>
+        <v>0.09707091748714447</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8541069030761719</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.8677294254302979</v>
       </c>
       <c r="W16" t="n">
-        <v>0.07723184674978256</v>
+        <v>0.0001855731097748503</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.9034659862518311</v>
       </c>
       <c r="V17" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.8760515451431274</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1316693425178528</v>
+        <v>0.0007515515899285674</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8429319858551025</v>
       </c>
       <c r="V18" t="n">
-        <v>0.708076536655426</v>
+        <v>0.8890072107315063</v>
       </c>
       <c r="W18" t="n">
-        <v>0.01818599179387093</v>
+        <v>0.002122926292940974</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8565020561218262</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.518183708190918</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1542013585567474</v>
+        <v>0.1144593060016632</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8526060581207275</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.8671575784683228</v>
       </c>
       <c r="W20" t="n">
-        <v>0.07049759477376938</v>
+        <v>0.0002117467374773696</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9032678604125977</v>
       </c>
       <c r="V21" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8901035785675049</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2358219772577286</v>
+        <v>0.000173298321897164</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5156710147857666</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.5311069488525391</v>
       </c>
       <c r="W22" t="n">
-        <v>0.03362798690795898</v>
+        <v>0.0002382680540904403</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.513916015625</v>
       </c>
       <c r="V23" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.5261655449867249</v>
       </c>
       <c r="W23" t="n">
-        <v>0.02661747857928276</v>
+        <v>0.0001500509679317474</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5105381011962891</v>
       </c>
       <c r="V24" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.8804219365119934</v>
       </c>
       <c r="W24" t="n">
-        <v>0.03900831937789917</v>
+        <v>0.1368140578269958</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5091638565063477</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5213173031806946</v>
       </c>
       <c r="W25" t="n">
-        <v>0.1104159653186798</v>
+        <v>0.0001477062614867464</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.568619966506958</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.4026016891002655</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0170573815703392</v>
+        <v>0.02756206877529621</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5095891952514648</v>
       </c>
       <c r="V27" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8694215416908264</v>
       </c>
       <c r="W27" t="n">
-        <v>0.01707825064659119</v>
+        <v>0.129479318857193</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5100710391998291</v>
       </c>
       <c r="V28" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.8731122612953186</v>
       </c>
       <c r="W28" t="n">
-        <v>0.1079585999250412</v>
+        <v>0.1317989230155945</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5070860385894775</v>
       </c>
       <c r="V29" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8670015931129456</v>
       </c>
       <c r="W29" t="n">
-        <v>0.03691598773002625</v>
+        <v>0.1295392066240311</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5050859451293945</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8897715210914612</v>
       </c>
       <c r="W30" t="n">
-        <v>0.007642342709004879</v>
+        <v>0.1479829996824265</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5112519264221191</v>
       </c>
       <c r="V31" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.3998930156230927</v>
       </c>
       <c r="W31" t="n">
-        <v>0.004223620519042015</v>
+        <v>0.01240080688148737</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.512031078338623</v>
       </c>
       <c r="V32" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.4006060659885406</v>
       </c>
       <c r="W32" t="n">
-        <v>0.03264374658465385</v>
+        <v>0.01241553295403719</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5131039619445801</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5163605213165283</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03464044630527496</v>
+        <v>1.060517934092786e-05</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5036020278930664</v>
       </c>
       <c r="V34" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5265410542488098</v>
       </c>
       <c r="W34" t="n">
-        <v>0.2227600961923599</v>
+        <v>0.0005261989426799119</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5099740028381348</v>
       </c>
       <c r="V35" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5127499103546143</v>
       </c>
       <c r="W35" t="n">
-        <v>0.2168475985527039</v>
+        <v>7.705662937951274e-06</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5108850002288818</v>
       </c>
       <c r="V36" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5167613625526428</v>
       </c>
       <c r="W36" t="n">
-        <v>0.006363133899867535</v>
+        <v>3.453163299127482e-05</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5586268901824951</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4009943008422852</v>
       </c>
       <c r="W37" t="n">
-        <v>0.001143278670497239</v>
+        <v>0.02484803274273872</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5077240467071533</v>
       </c>
       <c r="V38" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.4002905488014221</v>
       </c>
       <c r="W38" t="n">
-        <v>0.08816248178482056</v>
+        <v>0.01154195610433817</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5048930644989014</v>
       </c>
       <c r="V39" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.4002554714679718</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02127738669514656</v>
+        <v>0.01094902586191893</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5101690292358398</v>
       </c>
       <c r="V40" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.5258931517601013</v>
       </c>
       <c r="W40" t="n">
-        <v>0.02050997316837311</v>
+        <v>0.0002472480409778655</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5025570392608643</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.5274762511253357</v>
       </c>
       <c r="W41" t="n">
-        <v>4.57469241155195e-06</v>
+        <v>0.0006209671264514327</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.384148120880127</v>
       </c>
       <c r="V42" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5282074213027954</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0112745426595211</v>
+        <v>0.02075308188796043</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4059560298919678</v>
       </c>
       <c r="V43" t="n">
-        <v>0.405481219291687</v>
+        <v>0.4004383981227875</v>
       </c>
       <c r="W43" t="n">
-        <v>2.254451061389773e-07</v>
+        <v>3.044426011911128e-05</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3791239261627197</v>
       </c>
       <c r="V44" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.8731967210769653</v>
       </c>
       <c r="W44" t="n">
-        <v>1.57197359840211e-06</v>
+        <v>0.2441079318523407</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3802318572998047</v>
       </c>
       <c r="V45" t="n">
-        <v>0.35074183344841</v>
+        <v>0.868360161781311</v>
       </c>
       <c r="W45" t="n">
-        <v>0.000869661511387676</v>
+        <v>0.2382692396640778</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.383242130279541</v>
       </c>
       <c r="V46" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.399953156709671</v>
       </c>
       <c r="W46" t="n">
-        <v>0.001056263456121087</v>
+        <v>0.0002792584127746522</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3846879005432129</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.8779945969581604</v>
       </c>
       <c r="W47" t="n">
-        <v>0.001081020454876125</v>
+        <v>0.2433514893054962</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3805088996887207</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8799805641174316</v>
       </c>
       <c r="W48" t="n">
-        <v>0.00137781142257154</v>
+        <v>0.2494719475507736</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.4383540153503418</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.3999685049057007</v>
       </c>
       <c r="W49" t="n">
-        <v>0.2887896597385406</v>
+        <v>0.00147344742435962</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3844389915466309</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5326552987098694</v>
       </c>
       <c r="W50" t="n">
-        <v>0.001135558704845607</v>
+        <v>0.02196807414293289</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.384894847869873</v>
       </c>
       <c r="V51" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.5654975175857544</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01444933842867613</v>
+        <v>0.03261732310056686</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3854258060455322</v>
       </c>
       <c r="V52" t="n">
-        <v>0.417630136013031</v>
+        <v>0.8686586022377014</v>
       </c>
       <c r="W52" t="n">
-        <v>0.001037118840031326</v>
+        <v>0.2335139364004135</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3767361640930176</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8680873513221741</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0006754836649633944</v>
+        <v>0.2414259910583496</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3849499225616455</v>
       </c>
       <c r="V54" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.4023124277591705</v>
       </c>
       <c r="W54" t="n">
-        <v>0.07213205844163895</v>
+        <v>0.0003014565736521035</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3830370903015137</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.3990772068500519</v>
       </c>
       <c r="W55" t="n">
-        <v>0.001196951023302972</v>
+        <v>0.0002572853409219533</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3842628002166748</v>
       </c>
       <c r="V56" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5255486965179443</v>
       </c>
       <c r="W56" t="n">
-        <v>0.00112262845505029</v>
+        <v>0.01996170356869698</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3873310089111328</v>
       </c>
       <c r="V57" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.5294952392578125</v>
       </c>
       <c r="W57" t="n">
-        <v>0.01048702467232943</v>
+        <v>0.02021066844463348</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3795309066772461</v>
       </c>
       <c r="V58" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.8925321102142334</v>
       </c>
       <c r="W58" t="n">
-        <v>0.209408238530159</v>
+        <v>0.2631702423095703</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3844850063323975</v>
       </c>
       <c r="V59" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.399077832698822</v>
       </c>
       <c r="W59" t="n">
-        <v>0.1981996148824692</v>
+        <v>0.0002129505883203819</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3758318424224854</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.5211411118507385</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1839516311883926</v>
+        <v>0.02111478336155415</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3857119083404541</v>
       </c>
       <c r="V61" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.881552517414093</v>
       </c>
       <c r="W61" t="n">
-        <v>0.1754394769668579</v>
+        <v>0.245857909321785</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8905909061431885</v>
       </c>
       <c r="V62" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.8757673501968384</v>
       </c>
       <c r="W62" t="n">
-        <v>0.1602219045162201</v>
+        <v>0.0002197378053097054</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8728399276733398</v>
       </c>
       <c r="V63" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5167503952980042</v>
       </c>
       <c r="W63" t="n">
-        <v>0.1458411365747452</v>
+        <v>0.1267997622489929</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8617570400238037</v>
       </c>
       <c r="V64" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8871542811393738</v>
       </c>
       <c r="W64" t="n">
-        <v>0.1134775951504707</v>
+        <v>0.0006450198707170784</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8418221473693848</v>
       </c>
       <c r="V65" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8609523177146912</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1429018676280975</v>
+        <v>0.0003659634094219655</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8886041641235352</v>
       </c>
       <c r="V66" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5461105108261108</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2668770551681519</v>
+        <v>0.1173019036650658</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8514788150787354</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.8621050119400024</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1505341529846191</v>
+        <v>0.0001129160591517575</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8402788639068604</v>
       </c>
       <c r="V68" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.4002650082111359</v>
       </c>
       <c r="W68" t="n">
-        <v>0.2193887829780579</v>
+        <v>0.1936121881008148</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8573660850524902</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5292302370071411</v>
       </c>
       <c r="W69" t="n">
-        <v>0.0790034607052803</v>
+        <v>0.1076731383800507</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8827309608459473</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5167102813720703</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1432411223649979</v>
+        <v>0.1339711397886276</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8608570098876953</v>
       </c>
       <c r="V71" t="n">
-        <v>0.652911365032196</v>
+        <v>0.5165829062461853</v>
       </c>
       <c r="W71" t="n">
-        <v>0.04324139282107353</v>
+        <v>0.1185246556997299</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8551228046417236</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.5146916508674622</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1533799171447754</v>
+        <v>0.1158933714032173</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8558399677276611</v>
       </c>
       <c r="V73" t="n">
-        <v>0.490833193063736</v>
+        <v>0.4002798795700073</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1332299411296844</v>
+        <v>0.2075349986553192</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8744540214538574</v>
       </c>
       <c r="V74" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.8758998513221741</v>
       </c>
       <c r="W74" t="n">
-        <v>0.01022635027766228</v>
+        <v>2.090424004563829e-06</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8589508533477783</v>
       </c>
       <c r="V75" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.870323657989502</v>
       </c>
       <c r="W75" t="n">
-        <v>0.1948436945676804</v>
+        <v>0.0001293406821787357</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8385260105133057</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.856112003326416</v>
       </c>
       <c r="W76" t="n">
-        <v>0.001448450842872262</v>
+        <v>0.0003092671395279467</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8394889831542969</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.5033116936683655</v>
       </c>
       <c r="W77" t="n">
-        <v>2.899225000874139e-05</v>
+        <v>0.1130151674151421</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.9030349254608154</v>
       </c>
       <c r="V78" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.8721871376037598</v>
       </c>
       <c r="W78" t="n">
-        <v>0.04153476655483246</v>
+        <v>0.0009515860001556575</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8696699142456055</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8675506711006165</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2692509293556213</v>
+        <v>4.491191702982178e-06</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8499338626861572</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.5225505828857422</v>
       </c>
       <c r="W80" t="n">
-        <v>0.03853112831711769</v>
+        <v>0.1071798130869865</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8476300239562988</v>
       </c>
       <c r="V81" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.4023746252059937</v>
       </c>
       <c r="W81" t="n">
-        <v>0.06593074649572372</v>
+        <v>0.1982523649930954</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5661230087280273</v>
       </c>
       <c r="V82" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.5276018381118774</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01889544725418091</v>
+        <v>0.00148388056550175</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.534649133682251</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.3993209898471832</v>
       </c>
       <c r="W83" t="n">
-        <v>0.005346747580915689</v>
+        <v>0.0183137059211731</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5144460201263428</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5271550416946411</v>
       </c>
       <c r="W84" t="n">
-        <v>0.02679663151502609</v>
+        <v>0.0001615192304598168</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.506882905960083</v>
       </c>
       <c r="V85" t="n">
-        <v>0.505433976650238</v>
+        <v>0.523478090763092</v>
       </c>
       <c r="W85" t="n">
-        <v>2.099396169796819e-06</v>
+        <v>0.0002754001470748335</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5128889083862305</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.872704803943634</v>
       </c>
       <c r="W86" t="n">
-        <v>0.004011866170912981</v>
+        <v>0.1294674724340439</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5611529350280762</v>
       </c>
       <c r="V87" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8872950077056885</v>
       </c>
       <c r="W87" t="n">
-        <v>0.008352308534085751</v>
+        <v>0.1063686534762383</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5147559642791748</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5230136513710022</v>
       </c>
       <c r="W88" t="n">
-        <v>0.01567387580871582</v>
+        <v>6.818939436925575e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5145590305328369</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.4010597169399261</v>
       </c>
       <c r="W89" t="n">
-        <v>0.009393384680151939</v>
+        <v>0.01288209389895201</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5127341747283936</v>
       </c>
       <c r="V90" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8857921361923218</v>
       </c>
       <c r="W90" t="n">
-        <v>0.08343639224767685</v>
+        <v>0.1391722410917282</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5190918445587158</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.4004612267017365</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01803312636911869</v>
+        <v>0.01407322380691767</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5130519866943359</v>
       </c>
       <c r="V92" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.8698703646659851</v>
       </c>
       <c r="W92" t="n">
-        <v>0.08237577229738235</v>
+        <v>0.1273193508386612</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5114860534667969</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.8700746297836304</v>
       </c>
       <c r="W93" t="n">
-        <v>0.008803294971585274</v>
+        <v>0.1285857707262039</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5136439800262451</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.5268160700798035</v>
       </c>
       <c r="W94" t="n">
-        <v>0.001261328696273267</v>
+        <v>0.000173503955011256</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5163388252258301</v>
       </c>
       <c r="V95" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.5265387892723083</v>
       </c>
       <c r="W95" t="n">
-        <v>0.0006717987125739455</v>
+        <v>0.0001040392671711743</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5185210704803467</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.5322867631912231</v>
       </c>
       <c r="W96" t="n">
-        <v>0.08051436394453049</v>
+        <v>0.0001894942979561165</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5084989070892334</v>
       </c>
       <c r="V97" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.8865280747413635</v>
       </c>
       <c r="W97" t="n">
-        <v>0.005478726234287024</v>
+        <v>0.142906054854393</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5737850666046143</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.3990552127361298</v>
       </c>
       <c r="W98" t="n">
-        <v>0.006960802245885134</v>
+        <v>0.03053052164614201</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5176172256469727</v>
       </c>
       <c r="V99" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5162950158119202</v>
       </c>
       <c r="W99" t="n">
-        <v>0.03298422321677208</v>
+        <v>1.748238901200239e-06</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5177130699157715</v>
       </c>
       <c r="V100" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.5309630632400513</v>
       </c>
       <c r="W100" t="n">
-        <v>0.005352620035409927</v>
+        <v>0.0001755623234203085</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5123000144958496</v>
       </c>
       <c r="V101" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.4010797142982483</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0004788296355400234</v>
+        <v>0.01236995495855808</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.3948140144348145</v>
       </c>
       <c r="V102" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.529635488986969</v>
       </c>
       <c r="W102" t="n">
-        <v>0.1645212769508362</v>
+        <v>0.01817682944238186</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3938770294189453</v>
       </c>
       <c r="V103" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8856701254844666</v>
       </c>
       <c r="W103" t="n">
-        <v>0.09882600605487823</v>
+        <v>0.2418604493141174</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4296739101409912</v>
       </c>
       <c r="V104" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.8896796107292175</v>
       </c>
       <c r="W104" t="n">
-        <v>0.009241117164492607</v>
+        <v>0.2116052508354187</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.3969409465789795</v>
       </c>
       <c r="V105" t="n">
-        <v>0.655465304851532</v>
+        <v>0.4979200661182404</v>
       </c>
       <c r="W105" t="n">
-        <v>0.06683484464883804</v>
+        <v>0.01019678264856339</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3835301399230957</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.525688648223877</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1760552078485489</v>
+        <v>0.02020904235541821</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3859210014343262</v>
       </c>
       <c r="V107" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5206438302993774</v>
       </c>
       <c r="W107" t="n">
-        <v>0.07160430401563644</v>
+        <v>0.01815024018287659</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3881969451904297</v>
       </c>
       <c r="V108" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.4009974002838135</v>
       </c>
       <c r="W108" t="n">
-        <v>0.01859523355960846</v>
+        <v>0.0001638516550883651</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3860578536987305</v>
       </c>
       <c r="V109" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.8718859553337097</v>
       </c>
       <c r="W109" t="n">
-        <v>0.07125499099493027</v>
+        <v>0.2360289394855499</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.4418110847473145</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.532673180103302</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0003883656172547489</v>
+        <v>0.008255920372903347</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3884329795837402</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5125706195831299</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01046056859195232</v>
+        <v>0.01541015412658453</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3950531482696533</v>
       </c>
       <c r="V112" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.5325654149055481</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0002789068967103958</v>
+        <v>0.01890962384641171</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3894131183624268</v>
       </c>
       <c r="V113" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.501200258731842</v>
       </c>
       <c r="W113" t="n">
-        <v>0.2013981938362122</v>
+        <v>0.01249636430293322</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3892350196838379</v>
       </c>
       <c r="V114" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.5166943669319153</v>
       </c>
       <c r="W114" t="n">
-        <v>0.0001183904678327963</v>
+        <v>0.0162458848208189</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3900489807128906</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5175969004631042</v>
       </c>
       <c r="W115" t="n">
-        <v>0.0007609798922203481</v>
+        <v>0.01626847125589848</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3895061016082764</v>
       </c>
       <c r="V116" t="n">
-        <v>0.802417516708374</v>
+        <v>0.3990777432918549</v>
       </c>
       <c r="W116" t="n">
-        <v>0.1704958379268646</v>
+        <v>9.161632624454796e-05</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3837640285491943</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.5220944285392761</v>
       </c>
       <c r="W117" t="n">
-        <v>0.02013647370040417</v>
+        <v>0.01913530007004738</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4187958240509033</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.5238756537437439</v>
       </c>
       <c r="W118" t="n">
-        <v>0.007227610796689987</v>
+        <v>0.01104177068918943</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3829190731048584</v>
       </c>
       <c r="V119" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5665399432182312</v>
       </c>
       <c r="W119" t="n">
-        <v>0.01154581177979708</v>
+        <v>0.03371662274003029</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.3954489231109619</v>
       </c>
       <c r="V120" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.3990686535835266</v>
       </c>
       <c r="W120" t="n">
-        <v>0.0005493275821208954</v>
+        <v>1.310244897467783e-05</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3956220149993896</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8624429106712341</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01154435146600008</v>
+        <v>0.2179217487573624</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.9516279697418213</v>
       </c>
       <c r="V122" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.8671585917472839</v>
       </c>
       <c r="W122" t="n">
-        <v>0.08866162598133087</v>
+        <v>0.007135075982660055</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9290480613708496</v>
       </c>
       <c r="V123" t="n">
-        <v>0.590633749961853</v>
+        <v>0.8632718920707703</v>
       </c>
       <c r="W123" t="n">
-        <v>0.114524245262146</v>
+        <v>0.004326504655182362</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8818929195404053</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.3991773724555969</v>
       </c>
       <c r="W124" t="n">
-        <v>0.1275188773870468</v>
+        <v>0.2330143004655838</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.866441011428833</v>
       </c>
       <c r="V125" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.5167434215545654</v>
       </c>
       <c r="W125" t="n">
-        <v>0.2697862088680267</v>
+        <v>0.1222884058952332</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.9396529197692871</v>
       </c>
       <c r="V126" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.3999776542186737</v>
       </c>
       <c r="W126" t="n">
-        <v>0.001291901455260813</v>
+        <v>0.2912493646144867</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8601741790771484</v>
       </c>
       <c r="V127" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.5170183181762695</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1126182526350021</v>
+        <v>0.1177559420466423</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8705580234527588</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.51667320728302</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1340283453464508</v>
+        <v>0.1252344697713852</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8527100086212158</v>
       </c>
       <c r="V129" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.8638449907302856</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1312755048274994</v>
+        <v>0.0001239878329215571</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.9323620796203613</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.4004214107990265</v>
       </c>
       <c r="W130" t="n">
-        <v>0.264937549829483</v>
+        <v>0.2829609215259552</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8620100021362305</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.8725103735923767</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1275285929441452</v>
+        <v>0.0001102578025893308</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8681838512420654</v>
       </c>
       <c r="V132" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5274075865745544</v>
       </c>
       <c r="W132" t="n">
-        <v>0.04635494574904442</v>
+        <v>0.1161284595727921</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8797750473022461</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.8716174960136414</v>
       </c>
       <c r="W133" t="n">
-        <v>0.1403641402721405</v>
+        <v>6.65456464048475e-05</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.9095540046691895</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.3996873199939728</v>
       </c>
       <c r="W134" t="n">
-        <v>0.24196957051754</v>
+        <v>0.2599640786647797</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8665180206298828</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.3991765379905701</v>
       </c>
       <c r="W135" t="n">
-        <v>0.162162259221077</v>
+        <v>0.2184080630540848</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.8528680801391602</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.8729271292686462</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1318970322608948</v>
+        <v>0.000402365461923182</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8640589714050293</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.3990829586982727</v>
       </c>
       <c r="W137" t="n">
-        <v>0.02931618876755238</v>
+        <v>0.2162026911973953</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.9172878265380859</v>
       </c>
       <c r="V138" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8879551291465759</v>
       </c>
       <c r="W138" t="n">
-        <v>0.01328519824892282</v>
+        <v>0.0008604071335867047</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8497669696807861</v>
       </c>
       <c r="V139" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.39968541264534</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2490181475877762</v>
+        <v>0.2025734037160873</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8870780467987061</v>
       </c>
       <c r="V140" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4023415446281433</v>
       </c>
       <c r="W140" t="n">
-        <v>0.2655319273471832</v>
+        <v>0.2349694818258286</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8524549007415771</v>
       </c>
       <c r="V141" t="n">
-        <v>0.802345335483551</v>
+        <v>0.4003383815288544</v>
       </c>
       <c r="W141" t="n">
-        <v>0.002510968595743179</v>
+        <v>0.2044093459844589</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5773119926452637</v>
       </c>
       <c r="V142" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.4009687006473541</v>
       </c>
       <c r="W142" t="n">
-        <v>0.1585761308670044</v>
+        <v>0.03109695576131344</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5194869041442871</v>
       </c>
       <c r="V143" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.8813908100128174</v>
       </c>
       <c r="W143" t="n">
-        <v>0.2080116420984268</v>
+        <v>0.1309744417667389</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5179729461669922</v>
       </c>
       <c r="V144" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.4004616737365723</v>
       </c>
       <c r="W144" t="n">
-        <v>0.08108235150575638</v>
+        <v>0.0138088995590806</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5146110057830811</v>
       </c>
       <c r="V145" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.513655960559845</v>
       </c>
       <c r="W145" t="n">
-        <v>9.7813674074132e-05</v>
+        <v>9.121113748733478e-07</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5176818370819092</v>
       </c>
       <c r="V146" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.8815031051635742</v>
       </c>
       <c r="W146" t="n">
-        <v>0.02118481509387493</v>
+        <v>0.1323659121990204</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5413899421691895</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.3999637961387634</v>
       </c>
       <c r="W147" t="n">
-        <v>0.01255154237151146</v>
+        <v>0.0200013555586338</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5270290374755859</v>
       </c>
       <c r="V148" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8720868229866028</v>
       </c>
       <c r="W148" t="n">
-        <v>0.004343418404459953</v>
+        <v>0.1190648749470711</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5142581462860107</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.3997038006782532</v>
       </c>
       <c r="W149" t="n">
-        <v>0.003765891073271632</v>
+        <v>0.01312269829213619</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5190191268920898</v>
       </c>
       <c r="V150" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5234817266464233</v>
       </c>
       <c r="W150" t="n">
-        <v>0.01840669102966785</v>
+        <v>1.991479621210601e-05</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5171880722045898</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.400113582611084</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0001843960199039429</v>
+        <v>0.01370643638074398</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5158429145812988</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.5285976529121399</v>
       </c>
       <c r="W152" t="n">
-        <v>0.009645509533584118</v>
+        <v>0.0001626833545742556</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5384039878845215</v>
       </c>
       <c r="V153" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8679530620574951</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01458574738353491</v>
+        <v>0.1086025908589363</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5166900157928467</v>
       </c>
       <c r="V154" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.4003036320209503</v>
       </c>
       <c r="W154" t="n">
-        <v>0.01822157017886639</v>
+        <v>0.01354579068720341</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5195591449737549</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.5318703055381775</v>
       </c>
       <c r="W155" t="n">
-        <v>0.09885618090629578</v>
+        <v>0.0001515646727057174</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5104279518127441</v>
       </c>
       <c r="V156" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.4002900123596191</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0845838338136673</v>
+        <v>0.01213036570698023</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5180521011352539</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.8660648465156555</v>
       </c>
       <c r="W157" t="n">
-        <v>0.004800655413419008</v>
+        <v>0.1211128681898117</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5773909091949463</v>
       </c>
       <c r="V158" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.4009954631328583</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0003003946912940592</v>
+        <v>0.03111535310745239</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5174031257629395</v>
       </c>
       <c r="V159" t="n">
-        <v>0.490907609462738</v>
+        <v>0.4009738266468048</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0007020123885013163</v>
+        <v>0.01355578191578388</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.518618106842041</v>
       </c>
       <c r="V160" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.5310981273651123</v>
       </c>
       <c r="W160" t="n">
-        <v>0.02171086706221104</v>
+        <v>0.000155750909470953</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.518690824508667</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5266833901405334</v>
       </c>
       <c r="W161" t="n">
-        <v>0.0007863013306632638</v>
+        <v>6.388110341504216e-05</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3845269680023193</v>
       </c>
       <c r="V162" t="n">
-        <v>0.417663037776947</v>
+        <v>0.8760179877281189</v>
       </c>
       <c r="W162" t="n">
-        <v>0.001097999163903296</v>
+        <v>0.2415634244680405</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3889369964599609</v>
       </c>
       <c r="V163" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.3998746871948242</v>
       </c>
       <c r="W163" t="n">
-        <v>0.3436954319477081</v>
+        <v>0.0001196330777020194</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.4397609233856201</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.8588120341300964</v>
       </c>
       <c r="W164" t="n">
-        <v>0.002611296949908137</v>
+        <v>0.175603836774826</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3923981189727783</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.5233264565467834</v>
       </c>
       <c r="W165" t="n">
-        <v>0.01268359925597906</v>
+        <v>0.01714222878217697</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3857560157775879</v>
       </c>
       <c r="V166" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.4004338085651398</v>
       </c>
       <c r="W166" t="n">
-        <v>0.001492646057158709</v>
+        <v>0.0002154375979444012</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.390949010848999</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.3996793329715729</v>
       </c>
       <c r="W167" t="n">
-        <v>0.03665141388773918</v>
+        <v>7.621852273587137e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.4511659145355225</v>
       </c>
       <c r="V168" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.8738284111022949</v>
       </c>
       <c r="W168" t="n">
-        <v>0.04084721952676773</v>
+        <v>0.1786435842514038</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3905680179595947</v>
       </c>
       <c r="V169" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.4002642035484314</v>
       </c>
       <c r="W169" t="n">
-        <v>0.005032891873270273</v>
+        <v>9.401601710123941e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.4520089626312256</v>
       </c>
       <c r="V170" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5277608633041382</v>
       </c>
       <c r="W170" t="n">
-        <v>0.005275522358715534</v>
+        <v>0.005738350562751293</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3906660079956055</v>
       </c>
       <c r="V171" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.3990806043148041</v>
       </c>
       <c r="W171" t="n">
-        <v>0.08740606904029846</v>
+        <v>7.080542854964733e-05</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3994870185852051</v>
       </c>
       <c r="V172" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.8676416873931885</v>
       </c>
       <c r="W172" t="n">
-        <v>0.01115368865430355</v>
+        <v>0.2191687971353531</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3946781158447266</v>
       </c>
       <c r="V173" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.4026355743408203</v>
       </c>
       <c r="W173" t="n">
-        <v>0.0005179105792194605</v>
+        <v>6.332114571705461e-05</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4131858348846436</v>
       </c>
       <c r="V174" t="n">
-        <v>0.576347291469574</v>
+        <v>0.400258332490921</v>
       </c>
       <c r="W174" t="n">
-        <v>0.02662166021764278</v>
+        <v>0.0001671203208388761</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3919909000396729</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.8713289499282837</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0006571717676706612</v>
+        <v>0.2297649681568146</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3951170444488525</v>
       </c>
       <c r="V176" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.3991740047931671</v>
       </c>
       <c r="W176" t="n">
-        <v>0.09794393926858902</v>
+        <v>1.64589273481397e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4014451503753662</v>
       </c>
       <c r="V177" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.3990590870380402</v>
       </c>
       <c r="W177" t="n">
-        <v>0.01559661142528057</v>
+        <v>5.69329813515651e-06</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3903319835662842</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.8736554980278015</v>
       </c>
       <c r="W178" t="n">
-        <v>0.005406124517321587</v>
+        <v>0.2336016148328781</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3951280117034912</v>
       </c>
       <c r="V179" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.4009896516799927</v>
       </c>
       <c r="W179" t="n">
-        <v>0.03272219374775887</v>
+        <v>3.435882172198035e-05</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3934211730957031</v>
       </c>
       <c r="V180" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5278027653694153</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0004546968266367912</v>
+        <v>0.0180584117770195</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4087798595428467</v>
       </c>
       <c r="V181" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.5217161774635315</v>
       </c>
       <c r="W181" t="n">
-        <v>0.003365735523402691</v>
+        <v>0.01275461167097092</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.9310531616210938</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.88731449842453</v>
       </c>
       <c r="W182" t="n">
-        <v>0.009403080679476261</v>
+        <v>0.001913070678710938</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9001381397247314</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.3990662395954132</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1560585647821426</v>
+        <v>0.2510730922222137</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8736839294433594</v>
       </c>
       <c r="V184" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.3993374407291412</v>
       </c>
       <c r="W184" t="n">
-        <v>0.01039242744445801</v>
+        <v>0.2250045984983444</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8622119426727295</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.4022088944911957</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1606133580207825</v>
+        <v>0.2116028070449829</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.9206070899963379</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.5163174867630005</v>
       </c>
       <c r="W186" t="n">
-        <v>0.3246965110301971</v>
+        <v>0.1634500771760941</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8726701736450195</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.527108371257782</v>
       </c>
       <c r="W187" t="n">
-        <v>0.1671141237020493</v>
+        <v>0.1194129586219788</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8600640296936035</v>
       </c>
       <c r="V188" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.5290229916572571</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2586200535297394</v>
+        <v>0.1095881685614586</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8587009906768799</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8679909110069275</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1256017535924911</v>
+        <v>8.630262163933367e-05</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.9100961685180664</v>
       </c>
       <c r="V190" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.4021748900413513</v>
       </c>
       <c r="W190" t="n">
-        <v>0.004353771451860666</v>
+        <v>0.2579840123653412</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8680498600006104</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.4022544920444489</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1321181207895279</v>
+        <v>0.2169653177261353</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8641750812530518</v>
       </c>
       <c r="V192" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.4022928178310394</v>
       </c>
       <c r="W192" t="n">
-        <v>0.04454803094267845</v>
+        <v>0.2133352309465408</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8645908832550049</v>
       </c>
       <c r="V193" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.5249367356300354</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1606147438287735</v>
+        <v>0.1153649389743805</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.918956995010376</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.8659489750862122</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2512858808040619</v>
+        <v>0.002809850266203284</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8616139888763428</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.8774223923683167</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1582332849502563</v>
+        <v>0.0002499056281521916</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8604018688201904</v>
       </c>
       <c r="V196" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.5238497853279114</v>
       </c>
       <c r="W196" t="n">
-        <v>0.1368335783481598</v>
+        <v>0.1132673025131226</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8492429256439209</v>
       </c>
       <c r="V197" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8745516538619995</v>
       </c>
       <c r="W197" t="n">
-        <v>0.186357855796814</v>
+        <v>0.0006405317108146846</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.918503999710083</v>
       </c>
       <c r="V198" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.4022933840751648</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2509920299053192</v>
+        <v>0.2664734125137329</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8714280128479004</v>
       </c>
       <c r="V199" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.5278212428092957</v>
       </c>
       <c r="W199" t="n">
-        <v>0.04716366156935692</v>
+        <v>0.1180656105279922</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8650541305541992</v>
       </c>
       <c r="V200" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8741198182106018</v>
       </c>
       <c r="W200" t="n">
-        <v>0.1566963791847229</v>
+        <v>8.218669245252386e-05</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8827910423278809</v>
       </c>
       <c r="V201" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.8728626370429993</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1758129000663757</v>
+        <v>9.857323311734945e-05</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5699949264526367</v>
       </c>
       <c r="V202" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8864691853523254</v>
       </c>
       <c r="W202" t="n">
-        <v>0.04758737608790398</v>
+        <v>0.1001559570431709</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5083200931549072</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8822357058525085</v>
       </c>
       <c r="W203" t="n">
-        <v>0.007460578344762325</v>
+        <v>0.1398128867149353</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.523759126663208</v>
       </c>
       <c r="V204" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5251989960670471</v>
       </c>
       <c r="W204" t="n">
-        <v>0.02961071953177452</v>
+        <v>2.073223868137575e-06</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5118520259857178</v>
       </c>
       <c r="V205" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.52349853515625</v>
       </c>
       <c r="W205" t="n">
-        <v>0.004117422271519899</v>
+        <v>0.000135641181259416</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5180840492248535</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.3990409672260284</v>
       </c>
       <c r="W206" t="n">
-        <v>0.01008499041199684</v>
+        <v>0.01417125575244427</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5173430442810059</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.5666617751121521</v>
       </c>
       <c r="W207" t="n">
-        <v>0.0001415066508343443</v>
+        <v>0.002432337263599038</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5155980587005615</v>
       </c>
       <c r="V208" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.5161577463150024</v>
       </c>
       <c r="W208" t="n">
-        <v>0.0189727395772934</v>
+        <v>3.132502115477109e-07</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.51692795753479</v>
       </c>
       <c r="V209" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8653766512870789</v>
       </c>
       <c r="W209" t="n">
-        <v>0.005790555384010077</v>
+        <v>0.1214164942502975</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5169570446014404</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.8636841773986816</v>
       </c>
       <c r="W210" t="n">
-        <v>5.556712130783126e-05</v>
+        <v>0.1202197074890137</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5207931995391846</v>
       </c>
       <c r="V211" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.8728258013725281</v>
       </c>
       <c r="W211" t="n">
-        <v>1.8570037354948e-05</v>
+        <v>0.1239269524812698</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5211551189422607</v>
       </c>
       <c r="V212" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.3999495506286621</v>
       </c>
       <c r="W212" t="n">
-        <v>0.01716166734695435</v>
+        <v>0.01469078939408064</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5717520713806152</v>
       </c>
       <c r="V213" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.5227540731430054</v>
       </c>
       <c r="W213" t="n">
-        <v>0.006540280301123857</v>
+        <v>0.002400803845375776</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5180099010467529</v>
       </c>
       <c r="V214" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.4002788066864014</v>
       </c>
       <c r="W214" t="n">
-        <v>0.01847019232809544</v>
+        <v>0.01386061031371355</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5209879875183105</v>
       </c>
       <c r="V215" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.4002714455127716</v>
       </c>
       <c r="W215" t="n">
-        <v>0.09527241438627243</v>
+        <v>0.01457248348742723</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5132570266723633</v>
       </c>
       <c r="V216" t="n">
-        <v>0.838257908821106</v>
+        <v>0.5193650126457214</v>
       </c>
       <c r="W216" t="n">
-        <v>0.1056255698204041</v>
+        <v>3.730749085661955e-05</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5181879997253418</v>
       </c>
       <c r="V217" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8743546009063721</v>
       </c>
       <c r="W217" t="n">
-        <v>0.08167900890111923</v>
+        <v>0.1268546432256699</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5422689914703369</v>
       </c>
       <c r="V218" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.3998781442642212</v>
       </c>
       <c r="W218" t="n">
-        <v>0.02687008492648602</v>
+        <v>0.02027515321969986</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5216789245605469</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.5226712226867676</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0002745521196629852</v>
+        <v>9.846555713011185e-07</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5229740142822266</v>
       </c>
       <c r="V220" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.5036894083023071</v>
       </c>
       <c r="W220" t="n">
-        <v>0.003555442672222853</v>
+        <v>0.0003718960215337574</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5183291435241699</v>
       </c>
       <c r="V221" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.3990584909915924</v>
       </c>
       <c r="W221" t="n">
-        <v>0.003233845811337233</v>
+        <v>0.01422548852860928</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3868288993835449</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.4009616374969482</v>
       </c>
       <c r="W222" t="n">
-        <v>6.805165321566164e-05</v>
+        <v>0.0001997342915274203</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3892269134521484</v>
       </c>
       <c r="V223" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.87559574842453</v>
       </c>
       <c r="W223" t="n">
-        <v>0.01032386627048254</v>
+        <v>0.2365546375513077</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.4478988647460938</v>
       </c>
       <c r="V224" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.400254487991333</v>
       </c>
       <c r="W224" t="n">
-        <v>0.01646349392831326</v>
+        <v>0.002269986551254988</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3881099224090576</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.8732703328132629</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01050639525055885</v>
+        <v>0.235380619764328</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3939759731292725</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.3998903334140778</v>
       </c>
       <c r="W226" t="n">
-        <v>0.004831136669963598</v>
+        <v>3.497965735732578e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3871378898620605</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.4010385572910309</v>
       </c>
       <c r="W227" t="n">
-        <v>0.01387365162372589</v>
+        <v>0.0001932285522343591</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3866500854492188</v>
       </c>
       <c r="V228" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.8690539002418518</v>
       </c>
       <c r="W228" t="n">
-        <v>0.01897014491260052</v>
+        <v>0.23271344602108</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.4029650688171387</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.5174146294593811</v>
       </c>
       <c r="W229" t="n">
-        <v>0.0002124933089362457</v>
+        <v>0.01309870183467865</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3855400085449219</v>
       </c>
       <c r="V230" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8744422793388367</v>
       </c>
       <c r="W230" t="n">
-        <v>0.01939542032778263</v>
+        <v>0.2390254288911819</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3938031196594238</v>
       </c>
       <c r="V231" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.8714655041694641</v>
       </c>
       <c r="W231" t="n">
-        <v>0.0002290282427566126</v>
+        <v>0.2281613498926163</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3945381641387939</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.3998896181583405</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0123870512470603</v>
+        <v>2.863806003006175e-05</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.3987751007080078</v>
       </c>
       <c r="V233" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.4009922444820404</v>
       </c>
       <c r="W233" t="n">
-        <v>0.08265986293554306</v>
+        <v>4.915726549370447e-06</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3940908908843994</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8662943243980408</v>
       </c>
       <c r="W234" t="n">
-        <v>0.06771881878376007</v>
+        <v>0.2229760885238647</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3873729705810547</v>
       </c>
       <c r="V235" t="n">
-        <v>0.975181519985199</v>
+        <v>0.5211679339408875</v>
       </c>
       <c r="W235" t="n">
-        <v>0.3455188870429993</v>
+        <v>0.01790109276771545</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.4232368469238281</v>
       </c>
       <c r="V236" t="n">
-        <v>0.417653352022171</v>
+        <v>0.8724705576896667</v>
       </c>
       <c r="W236" t="n">
-        <v>3.117541564279236e-05</v>
+        <v>0.2018109261989594</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3913278579711914</v>
       </c>
       <c r="V237" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5203457474708557</v>
       </c>
       <c r="W237" t="n">
-        <v>0.006063423119485378</v>
+        <v>0.01664561592042446</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3910040855407715</v>
       </c>
       <c r="V238" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.4010380804538727</v>
       </c>
       <c r="W238" t="n">
-        <v>0.01816113106906414</v>
+        <v>0.0001006810562103055</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3917660713195801</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8720019459724426</v>
       </c>
       <c r="W239" t="n">
-        <v>0.001681511523202062</v>
+        <v>0.2306264936923981</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3873550891876221</v>
       </c>
       <c r="V240" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5310815572738647</v>
       </c>
       <c r="W240" t="n">
-        <v>0.07082957029342651</v>
+        <v>0.02065729722380638</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.386228084564209</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.8741316199302673</v>
       </c>
       <c r="W241" t="n">
-        <v>0.07134650647640228</v>
+        <v>0.2380498647689819</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9340600967407227</v>
       </c>
       <c r="V242" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.8743599057197571</v>
       </c>
       <c r="W242" t="n">
-        <v>0.2973105609416962</v>
+        <v>0.003564112819731236</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.9019050598144531</v>
       </c>
       <c r="V243" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.5279187560081482</v>
       </c>
       <c r="W243" t="n">
-        <v>0.009937731549143791</v>
+        <v>0.1398657560348511</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8834450244903564</v>
       </c>
       <c r="V244" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8781738877296448</v>
       </c>
       <c r="W244" t="n">
-        <v>0.006886972580105066</v>
+        <v>2.778488305921201e-05</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8760960102081299</v>
       </c>
       <c r="V245" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.3998927772045135</v>
       </c>
       <c r="W245" t="n">
-        <v>0.08993664383888245</v>
+        <v>0.2267695218324661</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9240548610687256</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.5169040560722351</v>
       </c>
       <c r="W246" t="n">
-        <v>0.01526638399809599</v>
+        <v>0.1657717823982239</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8751180171966553</v>
       </c>
       <c r="V247" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8746296167373657</v>
       </c>
       <c r="W247" t="n">
-        <v>0.122603178024292</v>
+        <v>2.385349944233894e-07</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8558840751647949</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.3999680280685425</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1558470278978348</v>
+        <v>0.2078594416379929</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8596539497375488</v>
       </c>
       <c r="V249" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.8673907518386841</v>
       </c>
       <c r="W249" t="n">
-        <v>0.2589520812034607</v>
+        <v>5.985810639685951e-05</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9199659824371338</v>
       </c>
       <c r="V250" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.3990574777126312</v>
       </c>
       <c r="W250" t="n">
-        <v>0.322751522064209</v>
+        <v>0.2713456451892853</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8935949802398682</v>
       </c>
       <c r="V251" t="n">
-        <v>0.975210964679718</v>
+        <v>0.8665414452552795</v>
       </c>
       <c r="W251" t="n">
-        <v>0.00666116876527667</v>
+        <v>0.0007318937568925321</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.8824079036712646</v>
       </c>
       <c r="V252" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.3991572260856628</v>
       </c>
       <c r="W252" t="n">
-        <v>0.03197649121284485</v>
+        <v>0.2335312217473984</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8694038391113281</v>
       </c>
       <c r="V253" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.3990746140480042</v>
       </c>
       <c r="W253" t="n">
-        <v>0.2473118603229523</v>
+        <v>0.2212095856666565</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.9344220161437988</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.8757839202880859</v>
       </c>
       <c r="W254" t="n">
-        <v>0.1283635795116425</v>
+        <v>0.003438426181674004</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>1.058418035507202</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.8842843770980835</v>
       </c>
       <c r="W255" t="n">
-        <v>0.5007933974266052</v>
+        <v>0.03032253123819828</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.867372989654541</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5294660329818726</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1322236955165863</v>
+        <v>0.1141811087727547</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8716740608215332</v>
       </c>
       <c r="V257" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8650376796722412</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2713579833507538</v>
+        <v>4.404155333759263e-05</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.9206409454345703</v>
       </c>
       <c r="V258" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.3998627364635468</v>
       </c>
       <c r="W258" t="n">
-        <v>0.3012945652008057</v>
+        <v>0.2712099254131317</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8685529232025146</v>
       </c>
       <c r="V259" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.5165791511535645</v>
       </c>
       <c r="W259" t="n">
-        <v>0.08201534301042557</v>
+        <v>0.1238855347037315</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8556249141693115</v>
       </c>
       <c r="V260" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.4003038704395294</v>
       </c>
       <c r="W260" t="n">
-        <v>0.04072292149066925</v>
+        <v>0.2073172479867935</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8735740184783936</v>
       </c>
       <c r="V261" t="n">
-        <v>0.653571605682373</v>
+        <v>0.4023304879665375</v>
       </c>
       <c r="W261" t="n">
-        <v>0.04840106144547462</v>
+        <v>0.2220704704523087</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5683920383453369</v>
       </c>
       <c r="V262" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.5169559121131897</v>
       </c>
       <c r="W262" t="n">
-        <v>0.1661911457777023</v>
+        <v>0.002645675092935562</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5272350311279297</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.3991692960262299</v>
       </c>
       <c r="W263" t="n">
-        <v>0.02183369733393192</v>
+        <v>0.01640083268284798</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5149078369140625</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.3990741670131683</v>
       </c>
       <c r="W264" t="n">
-        <v>9.762276749825105e-05</v>
+        <v>0.0134174395352602</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5264160633087158</v>
       </c>
       <c r="V265" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5316884517669678</v>
       </c>
       <c r="W265" t="n">
-        <v>0.02764946594834328</v>
+        <v>2.779807982733473e-05</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5210471153259277</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.4022942781448364</v>
       </c>
       <c r="W266" t="n">
-        <v>0.003550383495166898</v>
+        <v>0.01410223636776209</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.549943208694458</v>
       </c>
       <c r="V267" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.5189478397369385</v>
       </c>
       <c r="W267" t="n">
-        <v>0.01073573157191277</v>
+        <v>0.0009607129031792283</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5225179195404053</v>
       </c>
       <c r="V268" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.8872494697570801</v>
       </c>
       <c r="W268" t="n">
-        <v>0.03079371526837349</v>
+        <v>0.1330291032791138</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5225930213928223</v>
       </c>
       <c r="V269" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.3999630808830261</v>
       </c>
       <c r="W269" t="n">
-        <v>0.01721507124602795</v>
+        <v>0.01503810193389654</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5107958316802979</v>
       </c>
       <c r="V270" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.4027868807315826</v>
       </c>
       <c r="W270" t="n">
-        <v>0.08500625938177109</v>
+        <v>0.01166593376547098</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5195698738098145</v>
       </c>
       <c r="V271" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5271865129470825</v>
       </c>
       <c r="W271" t="n">
-        <v>0.0002060199331026524</v>
+        <v>5.801319275633432e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5319468975067139</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.3990556299686432</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01485281530767679</v>
+        <v>0.01766008883714676</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5238940715789795</v>
       </c>
       <c r="V273" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.3990699946880341</v>
       </c>
       <c r="W273" t="n">
-        <v>0.02854366600513458</v>
+        <v>0.01558104995638132</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5282120704650879</v>
       </c>
       <c r="V274" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.86663818359375</v>
       </c>
       <c r="W274" t="n">
-        <v>0.03149228915572166</v>
+        <v>0.1145322322845459</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5198049545288086</v>
       </c>
       <c r="V275" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.5262221693992615</v>
       </c>
       <c r="W275" t="n">
-        <v>0.2077435851097107</v>
+        <v>4.118064680369571e-05</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.520374059677124</v>
       </c>
       <c r="V276" t="n">
-        <v>0.503772497177124</v>
+        <v>0.892438530921936</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0002756118774414062</v>
+        <v>0.1384319663047791</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5278160572052002</v>
       </c>
       <c r="V277" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.8709037899971008</v>
       </c>
       <c r="W277" t="n">
-        <v>0.002352175069972873</v>
+        <v>0.1177091896533966</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5759041309356689</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.4022202789783478</v>
       </c>
       <c r="W278" t="n">
-        <v>0.0059608886949718</v>
+        <v>0.03016608022153378</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5332629680633545</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.886353611946106</v>
       </c>
       <c r="W279" t="n">
-        <v>0.03303981199860573</v>
+        <v>0.1246730014681816</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5204870700836182</v>
       </c>
       <c r="V280" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5241430401802063</v>
       </c>
       <c r="W280" t="n">
-        <v>0.02234204672276974</v>
+        <v>1.336611694569001e-05</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5129299163818359</v>
       </c>
       <c r="V281" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.8735579252243042</v>
       </c>
       <c r="W281" t="n">
-        <v>0.2141877859830856</v>
+        <v>0.1300525665283203</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.405580997467041</v>
       </c>
       <c r="V282" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.8728024363517761</v>
       </c>
       <c r="W282" t="n">
-        <v>0.001131146214902401</v>
+        <v>0.2182958722114563</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4022738933563232</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.5268558859825134</v>
       </c>
       <c r="W283" t="n">
-        <v>0.00782343652099371</v>
+        <v>0.01552067324519157</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.40081787109375</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.399871826171875</v>
       </c>
       <c r="W284" t="n">
-        <v>0.08905784785747528</v>
+        <v>8.950009942054749e-07</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4482460021972656</v>
       </c>
       <c r="V285" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.4000894129276276</v>
       </c>
       <c r="W285" t="n">
-        <v>0.1240405365824699</v>
+        <v>0.002319057006388903</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3977510929107666</v>
       </c>
       <c r="V286" t="n">
-        <v>0.372467577457428</v>
+        <v>0.4025928974151611</v>
       </c>
       <c r="W286" t="n">
-        <v>0.0006392561481334269</v>
+        <v>2.344306994928047e-05</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.4005110263824463</v>
       </c>
       <c r="V287" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.3997083008289337</v>
       </c>
       <c r="W287" t="n">
-        <v>0.06465260684490204</v>
+        <v>6.44368299163034e-07</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3895740509033203</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.4010511636734009</v>
       </c>
       <c r="W288" t="n">
-        <v>0.000786996737588197</v>
+        <v>0.0001317241112701595</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4091858863830566</v>
       </c>
       <c r="V289" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.5271832942962646</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0316476933658123</v>
+        <v>0.01392338797450066</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.407181978225708</v>
       </c>
       <c r="V290" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.522906482219696</v>
       </c>
       <c r="W290" t="n">
-        <v>0.3226600587368011</v>
+        <v>0.01339216064661741</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3979640007019043</v>
       </c>
       <c r="V291" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8817417025566101</v>
       </c>
       <c r="W291" t="n">
-        <v>0.01645012758672237</v>
+        <v>0.2340408712625504</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3985989093780518</v>
       </c>
       <c r="V292" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.5270368456840515</v>
       </c>
       <c r="W292" t="n">
-        <v>0.1893347948789597</v>
+        <v>0.01649630255997181</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3950169086456299</v>
       </c>
       <c r="V293" t="n">
-        <v>0.654336154460907</v>
+        <v>0.4002977907657623</v>
       </c>
       <c r="W293" t="n">
-        <v>0.06724647432565689</v>
+        <v>2.788771598716266e-05</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.3943140506744385</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.3990517258644104</v>
       </c>
       <c r="W294" t="n">
-        <v>0.0005436565261334181</v>
+        <v>2.244556708319578e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3939938545227051</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8750855326652527</v>
       </c>
       <c r="W295" t="n">
-        <v>0.009366737678647041</v>
+        <v>0.2314492017030716</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.4487309455871582</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.8805787563323975</v>
       </c>
       <c r="W296" t="n">
-        <v>0.003113409504294395</v>
+        <v>0.186492532491684</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.39068603515625</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.4983356893062592</v>
       </c>
       <c r="W297" t="n">
-        <v>0.01002090703696012</v>
+        <v>0.01158844772726297</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.4058229923248291</v>
       </c>
       <c r="V298" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.8750832676887512</v>
       </c>
       <c r="W298" t="n">
-        <v>0.08229385316371918</v>
+        <v>0.2202052026987076</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3924829959869385</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.5221573114395142</v>
       </c>
       <c r="W299" t="n">
-        <v>0.03615399450063705</v>
+        <v>0.0168154276907444</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.3964340686798096</v>
       </c>
       <c r="V300" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.5203003287315369</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0164216086268425</v>
+        <v>0.01534285023808479</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3985171318054199</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.4002440273761749</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01604112237691879</v>
+        <v>2.98216832561593e-06</v>
       </c>
     </row>
     <row r="302" spans="1:23">
